--- a/inst/extdata/norway_locations.xlsx
+++ b/inst/extdata/norway_locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raw996/Documents/git/fhidata/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riwh\OneDrive - Folkehelseinstituttet\packages\fhidata\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AA4139-EC72-7240-B4DA-8072FE8D2BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E0AA4139-EC72-7240-B4DA-8072FE8D2BA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{37AA1EF0-D9E2-4741-9D7B-7CD7AAC9AEC9}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="460" windowWidth="25860" windowHeight="22120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7155" yWindow="1140" windowWidth="20895" windowHeight="13005" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="norwayLocations" sheetId="1" r:id="rId1"/>
@@ -3678,9 +3678,6 @@
     <t>Indre Østfold</t>
   </si>
   <si>
-    <t>Nodre Follo</t>
-  </si>
-  <si>
     <t>Lillestrøm</t>
   </si>
   <si>
@@ -3796,6 +3793,9 @@
   </si>
   <si>
     <t>Nesbyen</t>
+  </si>
+  <si>
+    <t>Norde Follo</t>
   </si>
 </sst>
 </file>
@@ -3858,7 +3858,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4156,22 +4156,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A493" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F508" sqref="F508"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="1" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" customWidth="1"/>
-    <col min="9" max="1025" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="1025" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1838</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1838</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1992</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1994</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1838</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1838</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1964</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1902</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1838</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1838</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1838</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1838</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1838</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1838</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1838</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1838</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1838</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1838</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1838</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1931</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1838</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1838</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1838</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1915</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1838</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1838</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1966</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1838</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1838</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1929</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1838</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1908</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1838</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1838</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1838</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1838</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1838</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1838</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1838</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1838</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1838</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1965</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1992</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1838</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1838</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1838</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1838</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1838</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1864</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1838</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1854</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1854</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1838</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1838</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1838</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1838</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1965</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1911</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1976</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1838</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1864</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1914</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1976</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1838</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1861</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1863</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1838</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1866</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1838</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1838</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1977</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1908</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1977</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1838</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1838</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1962</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1838</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1838</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1838</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1898</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1838</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1847</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1847</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1838</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1894</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1838</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1849</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1849</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1838</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1838</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1838</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1977</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1977</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1905</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1838</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1838</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1897</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1838</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1877</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1838</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1901</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1838</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1885</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1885</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1838</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1838</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1838</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1838</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1838</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1962</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1988</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1838</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1988</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1838</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1988</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2017</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1964</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1838</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1838</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2002</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1838</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1838</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1838</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1838</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1838</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1838</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1838</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1913</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1838</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1838</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1960</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1838</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1964</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1838</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1838</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1838</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1838</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1838</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1838</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1838</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1838</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1964</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1838</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1838</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1838</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1992</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1838</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1838</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1960</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1850</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1962</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1838</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1838</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1886</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1960</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1838</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1838</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1902</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1838</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1838</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1838</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1838</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1865</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1964</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1838</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1964</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1880</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1964</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1964</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1838</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1838</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1900</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1960</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1965</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1965</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1838</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1855</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1838</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1838</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1838</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1964</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1838</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1838</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1965</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1930</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1922</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1871</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1838</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1884</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1838</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1842</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1838</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1838</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1923</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1849</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1849</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1965</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1924</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2006</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1972</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1838</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1852</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1916</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1838</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1863</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1838</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1838</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1862</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1917</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1977</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1977</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1838</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1891</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1838</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1838</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1856</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1907</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1838</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1886</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1838</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1838</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1838</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1964</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1910</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1964</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1923</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1964</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1964</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1838</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1910</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1947</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1947</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1964</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1838</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1858</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1862</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1964</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1838</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1850</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1838</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1838</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1838</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1838</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1863</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1838</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1838</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1838</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1838</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1838</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1838</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1896</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1866</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1964</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1838</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1838</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1977</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1838</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1977</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1838</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>747</v>
       </c>
       <c r="H260" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I260" t="s">
         <v>526</v>
@@ -11576,7 +11576,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1838</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>747</v>
       </c>
       <c r="H261" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I261" t="s">
         <v>526</v>
@@ -11605,7 +11605,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1977</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>747</v>
       </c>
       <c r="H262" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I262" t="s">
         <v>526</v>
@@ -11634,7 +11634,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2008</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>747</v>
       </c>
       <c r="H263" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I263" t="s">
         <v>526</v>
@@ -11657,7 +11657,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1838</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>747</v>
       </c>
       <c r="H264" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I264" t="s">
         <v>526</v>
@@ -11680,7 +11680,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1867</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>747</v>
       </c>
       <c r="H265" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I265" t="s">
         <v>526</v>
@@ -11703,7 +11703,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1838</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>747</v>
       </c>
       <c r="H266" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I266" t="s">
         <v>526</v>
@@ -11726,7 +11726,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1838</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>747</v>
       </c>
       <c r="H267" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I267" t="s">
         <v>526</v>
@@ -11749,7 +11749,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1917</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>747</v>
       </c>
       <c r="H268" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I268" t="s">
         <v>526</v>
@@ -11772,7 +11772,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1838</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>747</v>
       </c>
       <c r="H269" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I269" t="s">
         <v>526</v>
@@ -11801,7 +11801,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1883</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>747</v>
       </c>
       <c r="H270" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I270" t="s">
         <v>526</v>
@@ -11824,7 +11824,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1977</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>747</v>
       </c>
       <c r="H271" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I271" t="s">
         <v>526</v>
@@ -11853,7 +11853,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1838</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>747</v>
       </c>
       <c r="H272" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I272" t="s">
         <v>526</v>
@@ -11882,7 +11882,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1838</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>747</v>
       </c>
       <c r="H273" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I273" t="s">
         <v>526</v>
@@ -11905,7 +11905,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1977</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>747</v>
       </c>
       <c r="H274" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I274" t="s">
         <v>526</v>
@@ -11934,7 +11934,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1883</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>747</v>
       </c>
       <c r="H275" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I275" t="s">
         <v>526</v>
@@ -11957,7 +11957,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1977</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>747</v>
       </c>
       <c r="H276" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I276" t="s">
         <v>526</v>
@@ -11986,7 +11986,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1977</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>747</v>
       </c>
       <c r="H277" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I277" t="s">
         <v>526</v>
@@ -12009,7 +12009,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1908</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>747</v>
       </c>
       <c r="H278" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I278" t="s">
         <v>526</v>
@@ -12032,7 +12032,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1838</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>747</v>
       </c>
       <c r="H279" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I279" t="s">
         <v>526</v>
@@ -12061,7 +12061,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1838</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>747</v>
       </c>
       <c r="H280" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I280" t="s">
         <v>526</v>
@@ -12084,7 +12084,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1964</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>747</v>
       </c>
       <c r="H281" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I281" t="s">
         <v>526</v>
@@ -12107,7 +12107,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1838</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>747</v>
       </c>
       <c r="H282" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I282" t="s">
         <v>526</v>
@@ -12136,7 +12136,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1965</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>747</v>
       </c>
       <c r="H283" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I283" t="s">
         <v>526</v>
@@ -12165,7 +12165,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1867</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>747</v>
       </c>
       <c r="H284" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I284" t="s">
         <v>526</v>
@@ -12194,7 +12194,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1924</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>747</v>
       </c>
       <c r="H285" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I285" t="s">
         <v>526</v>
@@ -12217,7 +12217,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1840</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>747</v>
       </c>
       <c r="H286" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I286" t="s">
         <v>526</v>
@@ -12246,7 +12246,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1897</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>747</v>
       </c>
       <c r="H287" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I287" t="s">
         <v>526</v>
@@ -12275,7 +12275,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1964</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>747</v>
       </c>
       <c r="H288" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I288" t="s">
         <v>526</v>
@@ -12298,7 +12298,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1838</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>747</v>
       </c>
       <c r="H289" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I289" t="s">
         <v>526</v>
@@ -12327,7 +12327,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1893</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>747</v>
       </c>
       <c r="H290" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I290" t="s">
         <v>526</v>
@@ -12350,7 +12350,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1838</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>747</v>
       </c>
       <c r="H291" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I291" t="s">
         <v>526</v>
@@ -12373,7 +12373,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1838</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>747</v>
       </c>
       <c r="H292" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I292" t="s">
         <v>526</v>
@@ -12396,7 +12396,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1838</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>747</v>
       </c>
       <c r="H293" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I293" t="s">
         <v>526</v>
@@ -12419,7 +12419,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1858</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>747</v>
       </c>
       <c r="H294" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I294" t="s">
         <v>526</v>
@@ -12448,7 +12448,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1838</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>747</v>
       </c>
       <c r="H295" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I295" t="s">
         <v>526</v>
@@ -12477,7 +12477,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1960</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>747</v>
       </c>
       <c r="H296" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I296" t="s">
         <v>526</v>
@@ -12500,7 +12500,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2006</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>747</v>
       </c>
       <c r="H297" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I297" t="s">
         <v>526</v>
@@ -12523,7 +12523,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1838</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1838</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1924</v>
       </c>
@@ -12610,7 +12610,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1838</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1964</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1838</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1896</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1860</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1853</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1838</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1892</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1892</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1838</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1839</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1838</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1838</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1838</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1972</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1964</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1838</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1890</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1838</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1891</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1838</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1901</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1858</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1845</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1874</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1902</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1838</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1838</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1962</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1838</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1901</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1901</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1904</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1838</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1838</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1964</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1923</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1923</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1838</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1901</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1838</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1838</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1871</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1869</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1838</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1860</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2012</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1838</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1902</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1852</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1977</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1977</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1838</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1916</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1864</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1838</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1915</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1838</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1927</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1862</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1962</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1838</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1838</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1964</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1838</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1872</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1838</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1884</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1838</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1853</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1838</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1905</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1887</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1838</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1838</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1869</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1869</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1838</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1909</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1884</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1925</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1928</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1838</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1976</v>
       </c>
@@ -14866,7 +14866,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1963</v>
       </c>
@@ -14889,7 +14889,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1838</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1838</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1838</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1838</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1841</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1964</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1976</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1904</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1838</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2013</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1838</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1926</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1904</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1838</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1926</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1977</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1854</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1977</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1848</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1886</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1886</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1838</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1902</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1838</v>
       </c>
@@ -15543,7 +15543,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1838</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1860</v>
       </c>
@@ -15601,7 +15601,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1838</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1838</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1929</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1929</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1838</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1886</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1863</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1838</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1838</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1992</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1851</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>1863</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1838</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1853</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1869</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1839</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>1861</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1838</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>1866</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1838</v>
       </c>
@@ -16181,7 +16181,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1914</v>
       </c>
@@ -16210,7 +16210,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>1914</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1864</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>1864</v>
       </c>
@@ -16297,7 +16297,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>1838</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>1858</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2018</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2018</v>
       </c>
@@ -16407,7 +16407,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2018</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2018</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2018</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2018</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2018</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2018</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2018</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2018</v>
       </c>
@@ -16642,7 +16642,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2018</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2018</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2018</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2018</v>
       </c>
@@ -16758,7 +16758,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2018</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2018</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2018</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2018</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2018</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2018</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2018</v>
       </c>
@@ -16931,7 +16931,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2018</v>
       </c>
@@ -16954,7 +16954,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2018</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2018</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2018</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2018</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2018</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2018</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2018</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2018</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2018</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2018</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2018</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2018</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2018</v>
       </c>
@@ -17271,7 +17271,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2018</v>
       </c>
@@ -17294,7 +17294,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2018</v>
       </c>
@@ -17317,7 +17317,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2018</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2018</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2018</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2018</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2018</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2018</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2018</v>
       </c>
@@ -17484,7 +17484,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2018</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2018</v>
       </c>
@@ -17542,7 +17542,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2018</v>
       </c>
@@ -17565,7 +17565,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2018</v>
       </c>
@@ -17588,7 +17588,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2018</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2018</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2018</v>
       </c>
@@ -17669,7 +17669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2018</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2019</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>2020</v>
       </c>
@@ -17744,7 +17744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>2020</v>
       </c>
@@ -17767,7 +17767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>2020</v>
       </c>
@@ -17790,7 +17790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>2020</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>2020</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>2020</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>2020</v>
       </c>
@@ -17882,7 +17882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>2020</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>2020</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>2020</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>2020</v>
       </c>
@@ -17974,7 +17974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>2020</v>
       </c>
@@ -17997,7 +17997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>2020</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>2020</v>
       </c>
@@ -18043,7 +18043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>2020</v>
       </c>
@@ -18066,7 +18066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>2020</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>2020</v>
       </c>
@@ -18097,7 +18097,7 @@
         <v>68</v>
       </c>
       <c r="F507" t="s">
-        <v>1217</v>
+        <v>1256</v>
       </c>
       <c r="G507" t="s">
         <v>1214</v>
@@ -18112,7 +18112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>2020</v>
       </c>
@@ -18135,7 +18135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>2020</v>
       </c>
@@ -18158,7 +18158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>2020</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>2020</v>
       </c>
@@ -18204,7 +18204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>2020</v>
       </c>
@@ -18227,7 +18227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>2020</v>
       </c>
@@ -18250,7 +18250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>2020</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>2020</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>2020</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>2020</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>90</v>
       </c>
       <c r="F517" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G517" t="s">
         <v>1214</v>
@@ -18342,7 +18342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>2020</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>2020</v>
       </c>
@@ -18388,7 +18388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>2020</v>
       </c>
@@ -18411,7 +18411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>2020</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>2020</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>2020</v>
       </c>
@@ -18480,7 +18480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>2020</v>
       </c>
@@ -18503,7 +18503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>2020</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>2020</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>2020</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>295</v>
       </c>
       <c r="F527" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="G527" t="s">
         <v>1214</v>
@@ -18572,7 +18572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>2020</v>
       </c>
@@ -18595,7 +18595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>2020</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>2020</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>2020</v>
       </c>
@@ -18664,7 +18664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>2020</v>
       </c>
@@ -18687,7 +18687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>2020</v>
       </c>
@@ -18710,7 +18710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>2020</v>
       </c>
@@ -18733,7 +18733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>2020</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>318</v>
       </c>
       <c r="F535" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G535" t="s">
         <v>1214</v>
@@ -18756,7 +18756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>2020</v>
       </c>
@@ -18779,7 +18779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>2020</v>
       </c>
@@ -18802,7 +18802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>2020</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>2020</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>336</v>
       </c>
       <c r="F539" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G539" t="s">
         <v>1214</v>
@@ -18848,7 +18848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>2020</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>2020</v>
       </c>
@@ -18894,7 +18894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>2020</v>
       </c>
@@ -18905,10 +18905,10 @@
         <v>132</v>
       </c>
       <c r="G542" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H542" t="s">
         <v>1221</v>
-      </c>
-      <c r="H542" t="s">
-        <v>1222</v>
       </c>
       <c r="I542" t="s">
         <v>15</v>
@@ -18917,7 +18917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>2020</v>
       </c>
@@ -18928,10 +18928,10 @@
         <v>137</v>
       </c>
       <c r="G543" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H543" t="s">
         <v>1221</v>
-      </c>
-      <c r="H543" t="s">
-        <v>1222</v>
       </c>
       <c r="I543" t="s">
         <v>15</v>
@@ -18940,7 +18940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>2020</v>
       </c>
@@ -18951,10 +18951,10 @@
         <v>199</v>
       </c>
       <c r="G544" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H544" t="s">
         <v>1221</v>
-      </c>
-      <c r="H544" t="s">
-        <v>1222</v>
       </c>
       <c r="I544" t="s">
         <v>15</v>
@@ -18963,7 +18963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>2020</v>
       </c>
@@ -18974,10 +18974,10 @@
         <v>204</v>
       </c>
       <c r="G545" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H545" t="s">
         <v>1221</v>
-      </c>
-      <c r="H545" t="s">
-        <v>1222</v>
       </c>
       <c r="I545" t="s">
         <v>15</v>
@@ -18986,7 +18986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>2020</v>
       </c>
@@ -18997,10 +18997,10 @@
         <v>140</v>
       </c>
       <c r="G546" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H546" t="s">
         <v>1221</v>
-      </c>
-      <c r="H546" t="s">
-        <v>1222</v>
       </c>
       <c r="I546" t="s">
         <v>15</v>
@@ -19009,7 +19009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>2020</v>
       </c>
@@ -19020,10 +19020,10 @@
         <v>143</v>
       </c>
       <c r="G547" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H547" t="s">
         <v>1221</v>
-      </c>
-      <c r="H547" t="s">
-        <v>1222</v>
       </c>
       <c r="I547" t="s">
         <v>15</v>
@@ -19032,7 +19032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>2020</v>
       </c>
@@ -19043,10 +19043,10 @@
         <v>146</v>
       </c>
       <c r="G548" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H548" t="s">
         <v>1221</v>
-      </c>
-      <c r="H548" t="s">
-        <v>1222</v>
       </c>
       <c r="I548" t="s">
         <v>15</v>
@@ -19055,7 +19055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>2020</v>
       </c>
@@ -19066,10 +19066,10 @@
         <v>149</v>
       </c>
       <c r="G549" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H549" t="s">
         <v>1221</v>
-      </c>
-      <c r="H549" t="s">
-        <v>1222</v>
       </c>
       <c r="I549" t="s">
         <v>15</v>
@@ -19078,7 +19078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>2020</v>
       </c>
@@ -19089,10 +19089,10 @@
         <v>152</v>
       </c>
       <c r="G550" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H550" t="s">
         <v>1221</v>
-      </c>
-      <c r="H550" t="s">
-        <v>1222</v>
       </c>
       <c r="I550" t="s">
         <v>15</v>
@@ -19101,7 +19101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>2020</v>
       </c>
@@ -19112,10 +19112,10 @@
         <v>155</v>
       </c>
       <c r="G551" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H551" t="s">
         <v>1221</v>
-      </c>
-      <c r="H551" t="s">
-        <v>1222</v>
       </c>
       <c r="I551" t="s">
         <v>15</v>
@@ -19124,7 +19124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>2020</v>
       </c>
@@ -19135,10 +19135,10 @@
         <v>158</v>
       </c>
       <c r="G552" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H552" t="s">
         <v>1221</v>
-      </c>
-      <c r="H552" t="s">
-        <v>1222</v>
       </c>
       <c r="I552" t="s">
         <v>15</v>
@@ -19147,7 +19147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>2020</v>
       </c>
@@ -19158,10 +19158,10 @@
         <v>161</v>
       </c>
       <c r="G553" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H553" t="s">
         <v>1221</v>
-      </c>
-      <c r="H553" t="s">
-        <v>1222</v>
       </c>
       <c r="I553" t="s">
         <v>15</v>
@@ -19170,7 +19170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>2020</v>
       </c>
@@ -19181,10 +19181,10 @@
         <v>60</v>
       </c>
       <c r="G554" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H554" t="s">
         <v>1221</v>
-      </c>
-      <c r="H554" t="s">
-        <v>1222</v>
       </c>
       <c r="I554" t="s">
         <v>15</v>
@@ -19193,7 +19193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>2020</v>
       </c>
@@ -19204,10 +19204,10 @@
         <v>166</v>
       </c>
       <c r="G555" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H555" t="s">
         <v>1221</v>
-      </c>
-      <c r="H555" t="s">
-        <v>1222</v>
       </c>
       <c r="I555" t="s">
         <v>15</v>
@@ -19216,7 +19216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>2020</v>
       </c>
@@ -19227,10 +19227,10 @@
         <v>169</v>
       </c>
       <c r="G556" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H556" t="s">
         <v>1221</v>
-      </c>
-      <c r="H556" t="s">
-        <v>1222</v>
       </c>
       <c r="I556" t="s">
         <v>15</v>
@@ -19239,7 +19239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>2020</v>
       </c>
@@ -19250,10 +19250,10 @@
         <v>172</v>
       </c>
       <c r="G557" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H557" t="s">
         <v>1221</v>
-      </c>
-      <c r="H557" t="s">
-        <v>1222</v>
       </c>
       <c r="I557" t="s">
         <v>15</v>
@@ -19262,7 +19262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>2020</v>
       </c>
@@ -19273,10 +19273,10 @@
         <v>175</v>
       </c>
       <c r="G558" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H558" t="s">
         <v>1221</v>
-      </c>
-      <c r="H558" t="s">
-        <v>1222</v>
       </c>
       <c r="I558" t="s">
         <v>15</v>
@@ -19285,7 +19285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>2020</v>
       </c>
@@ -19296,10 +19296,10 @@
         <v>178</v>
       </c>
       <c r="G559" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H559" t="s">
         <v>1221</v>
-      </c>
-      <c r="H559" t="s">
-        <v>1222</v>
       </c>
       <c r="I559" t="s">
         <v>15</v>
@@ -19308,7 +19308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>2020</v>
       </c>
@@ -19319,10 +19319,10 @@
         <v>181</v>
       </c>
       <c r="G560" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H560" t="s">
         <v>1221</v>
-      </c>
-      <c r="H560" t="s">
-        <v>1222</v>
       </c>
       <c r="I560" t="s">
         <v>15</v>
@@ -19331,7 +19331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>2020</v>
       </c>
@@ -19342,10 +19342,10 @@
         <v>184</v>
       </c>
       <c r="G561" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H561" t="s">
         <v>1221</v>
-      </c>
-      <c r="H561" t="s">
-        <v>1222</v>
       </c>
       <c r="I561" t="s">
         <v>15</v>
@@ -19354,7 +19354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>2020</v>
       </c>
@@ -19365,10 +19365,10 @@
         <v>187</v>
       </c>
       <c r="G562" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H562" t="s">
         <v>1221</v>
-      </c>
-      <c r="H562" t="s">
-        <v>1222</v>
       </c>
       <c r="I562" t="s">
         <v>15</v>
@@ -19377,7 +19377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>2020</v>
       </c>
@@ -19388,10 +19388,10 @@
         <v>190</v>
       </c>
       <c r="G563" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H563" t="s">
         <v>1221</v>
-      </c>
-      <c r="H563" t="s">
-        <v>1222</v>
       </c>
       <c r="I563" t="s">
         <v>15</v>
@@ -19400,7 +19400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>2020</v>
       </c>
@@ -19411,10 +19411,10 @@
         <v>193</v>
       </c>
       <c r="G564" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H564" t="s">
         <v>1221</v>
-      </c>
-      <c r="H564" t="s">
-        <v>1222</v>
       </c>
       <c r="I564" t="s">
         <v>15</v>
@@ -19423,7 +19423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>2020</v>
       </c>
@@ -19434,10 +19434,10 @@
         <v>196</v>
       </c>
       <c r="G565" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H565" t="s">
         <v>1221</v>
-      </c>
-      <c r="H565" t="s">
-        <v>1222</v>
       </c>
       <c r="I565" t="s">
         <v>15</v>
@@ -19446,7 +19446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>2020</v>
       </c>
@@ -19457,10 +19457,10 @@
         <v>207</v>
       </c>
       <c r="G566" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H566" t="s">
         <v>1221</v>
-      </c>
-      <c r="H566" t="s">
-        <v>1222</v>
       </c>
       <c r="I566" t="s">
         <v>15</v>
@@ -19469,7 +19469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>2020</v>
       </c>
@@ -19480,10 +19480,10 @@
         <v>210</v>
       </c>
       <c r="G567" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H567" t="s">
         <v>1221</v>
-      </c>
-      <c r="H567" t="s">
-        <v>1222</v>
       </c>
       <c r="I567" t="s">
         <v>15</v>
@@ -19492,7 +19492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>2020</v>
       </c>
@@ -19503,10 +19503,10 @@
         <v>213</v>
       </c>
       <c r="G568" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H568" t="s">
         <v>1221</v>
-      </c>
-      <c r="H568" t="s">
-        <v>1222</v>
       </c>
       <c r="I568" t="s">
         <v>15</v>
@@ -19515,7 +19515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>2020</v>
       </c>
@@ -19526,10 +19526,10 @@
         <v>216</v>
       </c>
       <c r="G569" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H569" t="s">
         <v>1221</v>
-      </c>
-      <c r="H569" t="s">
-        <v>1222</v>
       </c>
       <c r="I569" t="s">
         <v>15</v>
@@ -19538,7 +19538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>2020</v>
       </c>
@@ -19549,10 +19549,10 @@
         <v>219</v>
       </c>
       <c r="G570" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H570" t="s">
         <v>1221</v>
-      </c>
-      <c r="H570" t="s">
-        <v>1222</v>
       </c>
       <c r="I570" t="s">
         <v>15</v>
@@ -19561,7 +19561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>2020</v>
       </c>
@@ -19572,10 +19572,10 @@
         <v>222</v>
       </c>
       <c r="G571" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H571" t="s">
         <v>1221</v>
-      </c>
-      <c r="H571" t="s">
-        <v>1222</v>
       </c>
       <c r="I571" t="s">
         <v>15</v>
@@ -19584,7 +19584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>2020</v>
       </c>
@@ -19595,10 +19595,10 @@
         <v>225</v>
       </c>
       <c r="G572" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H572" t="s">
         <v>1221</v>
-      </c>
-      <c r="H572" t="s">
-        <v>1222</v>
       </c>
       <c r="I572" t="s">
         <v>15</v>
@@ -19607,7 +19607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>2020</v>
       </c>
@@ -19618,10 +19618,10 @@
         <v>228</v>
       </c>
       <c r="G573" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H573" t="s">
         <v>1221</v>
-      </c>
-      <c r="H573" t="s">
-        <v>1222</v>
       </c>
       <c r="I573" t="s">
         <v>15</v>
@@ -19630,7 +19630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>2020</v>
       </c>
@@ -19641,10 +19641,10 @@
         <v>231</v>
       </c>
       <c r="G574" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H574" t="s">
         <v>1221</v>
-      </c>
-      <c r="H574" t="s">
-        <v>1222</v>
       </c>
       <c r="I574" t="s">
         <v>15</v>
@@ -19653,7 +19653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>2020</v>
       </c>
@@ -19664,10 +19664,10 @@
         <v>234</v>
       </c>
       <c r="G575" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H575" t="s">
         <v>1221</v>
-      </c>
-      <c r="H575" t="s">
-        <v>1222</v>
       </c>
       <c r="I575" t="s">
         <v>15</v>
@@ -19676,7 +19676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>2020</v>
       </c>
@@ -19687,10 +19687,10 @@
         <v>237</v>
       </c>
       <c r="G576" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H576" t="s">
         <v>1221</v>
-      </c>
-      <c r="H576" t="s">
-        <v>1222</v>
       </c>
       <c r="I576" t="s">
         <v>15</v>
@@ -19699,7 +19699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>2020</v>
       </c>
@@ -19710,10 +19710,10 @@
         <v>240</v>
       </c>
       <c r="G577" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H577" t="s">
         <v>1221</v>
-      </c>
-      <c r="H577" t="s">
-        <v>1222</v>
       </c>
       <c r="I577" t="s">
         <v>15</v>
@@ -19722,7 +19722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>2020</v>
       </c>
@@ -19733,10 +19733,10 @@
         <v>243</v>
       </c>
       <c r="G578" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H578" t="s">
         <v>1221</v>
-      </c>
-      <c r="H578" t="s">
-        <v>1222</v>
       </c>
       <c r="I578" t="s">
         <v>15</v>
@@ -19745,7 +19745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>2020</v>
       </c>
@@ -19756,10 +19756,10 @@
         <v>252</v>
       </c>
       <c r="G579" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H579" t="s">
         <v>1221</v>
-      </c>
-      <c r="H579" t="s">
-        <v>1222</v>
       </c>
       <c r="I579" t="s">
         <v>15</v>
@@ -19768,7 +19768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>2020</v>
       </c>
@@ -19776,13 +19776,13 @@
         <v>253</v>
       </c>
       <c r="F580" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G580" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H580" t="s">
         <v>1221</v>
-      </c>
-      <c r="H580" t="s">
-        <v>1222</v>
       </c>
       <c r="I580" t="s">
         <v>15</v>
@@ -19791,7 +19791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>2020</v>
       </c>
@@ -19799,13 +19799,13 @@
         <v>256</v>
       </c>
       <c r="F581" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G581" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H581" t="s">
         <v>1221</v>
-      </c>
-      <c r="H581" t="s">
-        <v>1222</v>
       </c>
       <c r="I581" t="s">
         <v>15</v>
@@ -19814,7 +19814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>2020</v>
       </c>
@@ -19825,10 +19825,10 @@
         <v>261</v>
       </c>
       <c r="G582" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H582" t="s">
         <v>1221</v>
-      </c>
-      <c r="H582" t="s">
-        <v>1222</v>
       </c>
       <c r="I582" t="s">
         <v>15</v>
@@ -19837,7 +19837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>2020</v>
       </c>
@@ -19848,10 +19848,10 @@
         <v>264</v>
       </c>
       <c r="G583" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H583" t="s">
         <v>1221</v>
-      </c>
-      <c r="H583" t="s">
-        <v>1222</v>
       </c>
       <c r="I583" t="s">
         <v>15</v>
@@ -19860,7 +19860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>2020</v>
       </c>
@@ -19871,10 +19871,10 @@
         <v>267</v>
       </c>
       <c r="G584" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H584" t="s">
         <v>1221</v>
-      </c>
-      <c r="H584" t="s">
-        <v>1222</v>
       </c>
       <c r="I584" t="s">
         <v>15</v>
@@ -19883,7 +19883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>2020</v>
       </c>
@@ -19894,10 +19894,10 @@
         <v>270</v>
       </c>
       <c r="G585" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H585" t="s">
         <v>1221</v>
-      </c>
-      <c r="H585" t="s">
-        <v>1222</v>
       </c>
       <c r="I585" t="s">
         <v>15</v>
@@ -19906,7 +19906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>2020</v>
       </c>
@@ -19917,10 +19917,10 @@
         <v>273</v>
       </c>
       <c r="G586" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H586" t="s">
         <v>1221</v>
-      </c>
-      <c r="H586" t="s">
-        <v>1222</v>
       </c>
       <c r="I586" t="s">
         <v>15</v>
@@ -19929,7 +19929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>2020</v>
       </c>
@@ -19940,10 +19940,10 @@
         <v>276</v>
       </c>
       <c r="G587" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H587" t="s">
         <v>1221</v>
-      </c>
-      <c r="H587" t="s">
-        <v>1222</v>
       </c>
       <c r="I587" t="s">
         <v>15</v>
@@ -19952,7 +19952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>2020</v>
       </c>
@@ -19963,10 +19963,10 @@
         <v>341</v>
       </c>
       <c r="G588" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H588" t="s">
         <v>1225</v>
-      </c>
-      <c r="H588" t="s">
-        <v>1226</v>
       </c>
       <c r="I588" t="s">
         <v>15</v>
@@ -19975,7 +19975,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>2020</v>
       </c>
@@ -19986,10 +19986,10 @@
         <v>346</v>
       </c>
       <c r="G589" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H589" t="s">
         <v>1225</v>
-      </c>
-      <c r="H589" t="s">
-        <v>1226</v>
       </c>
       <c r="I589" t="s">
         <v>15</v>
@@ -19998,7 +19998,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>2020</v>
       </c>
@@ -20009,10 +20009,10 @@
         <v>349</v>
       </c>
       <c r="G590" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H590" t="s">
         <v>1225</v>
-      </c>
-      <c r="H590" t="s">
-        <v>1226</v>
       </c>
       <c r="I590" t="s">
         <v>15</v>
@@ -20021,7 +20021,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>2020</v>
       </c>
@@ -20032,10 +20032,10 @@
         <v>352</v>
       </c>
       <c r="G591" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H591" t="s">
         <v>1225</v>
-      </c>
-      <c r="H591" t="s">
-        <v>1226</v>
       </c>
       <c r="I591" t="s">
         <v>15</v>
@@ -20044,7 +20044,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>2020</v>
       </c>
@@ -20055,10 +20055,10 @@
         <v>355</v>
       </c>
       <c r="G592" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H592" t="s">
         <v>1225</v>
-      </c>
-      <c r="H592" t="s">
-        <v>1226</v>
       </c>
       <c r="I592" t="s">
         <v>15</v>
@@ -20067,7 +20067,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>2020</v>
       </c>
@@ -20078,10 +20078,10 @@
         <v>379</v>
       </c>
       <c r="G593" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H593" t="s">
         <v>1225</v>
-      </c>
-      <c r="H593" t="s">
-        <v>1226</v>
       </c>
       <c r="I593" t="s">
         <v>15</v>
@@ -20090,7 +20090,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>2020</v>
       </c>
@@ -20101,10 +20101,10 @@
         <v>384</v>
       </c>
       <c r="G594" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H594" t="s">
         <v>1225</v>
-      </c>
-      <c r="H594" t="s">
-        <v>1226</v>
       </c>
       <c r="I594" t="s">
         <v>15</v>
@@ -20113,7 +20113,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>2020</v>
       </c>
@@ -20124,10 +20124,10 @@
         <v>387</v>
       </c>
       <c r="G595" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H595" t="s">
         <v>1225</v>
-      </c>
-      <c r="H595" t="s">
-        <v>1226</v>
       </c>
       <c r="I595" t="s">
         <v>15</v>
@@ -20136,7 +20136,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>2020</v>
       </c>
@@ -20147,10 +20147,10 @@
         <v>1212</v>
       </c>
       <c r="G596" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H596" t="s">
         <v>1225</v>
-      </c>
-      <c r="H596" t="s">
-        <v>1226</v>
       </c>
       <c r="I596" t="s">
         <v>15</v>
@@ -20159,7 +20159,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>2020</v>
       </c>
@@ -20170,10 +20170,10 @@
         <v>390</v>
       </c>
       <c r="G597" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H597" t="s">
         <v>1225</v>
-      </c>
-      <c r="H597" t="s">
-        <v>1226</v>
       </c>
       <c r="I597" t="s">
         <v>15</v>
@@ -20182,7 +20182,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>2020</v>
       </c>
@@ -20193,10 +20193,10 @@
         <v>393</v>
       </c>
       <c r="G598" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H598" t="s">
         <v>1225</v>
-      </c>
-      <c r="H598" t="s">
-        <v>1226</v>
       </c>
       <c r="I598" t="s">
         <v>15</v>
@@ -20205,7 +20205,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>2020</v>
       </c>
@@ -20216,10 +20216,10 @@
         <v>396</v>
       </c>
       <c r="G599" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H599" t="s">
         <v>1225</v>
-      </c>
-      <c r="H599" t="s">
-        <v>1226</v>
       </c>
       <c r="I599" t="s">
         <v>15</v>
@@ -20228,7 +20228,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>2020</v>
       </c>
@@ -20239,10 +20239,10 @@
         <v>399</v>
       </c>
       <c r="G600" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H600" t="s">
         <v>1225</v>
-      </c>
-      <c r="H600" t="s">
-        <v>1226</v>
       </c>
       <c r="I600" t="s">
         <v>15</v>
@@ -20251,7 +20251,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>2020</v>
       </c>
@@ -20262,10 +20262,10 @@
         <v>402</v>
       </c>
       <c r="G601" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H601" t="s">
         <v>1225</v>
-      </c>
-      <c r="H601" t="s">
-        <v>1226</v>
       </c>
       <c r="I601" t="s">
         <v>15</v>
@@ -20274,7 +20274,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>2020</v>
       </c>
@@ -20282,13 +20282,13 @@
         <v>403</v>
       </c>
       <c r="F602" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G602" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H602" t="s">
         <v>1225</v>
-      </c>
-      <c r="H602" t="s">
-        <v>1226</v>
       </c>
       <c r="I602" t="s">
         <v>15</v>
@@ -20297,7 +20297,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>2020</v>
       </c>
@@ -20308,10 +20308,10 @@
         <v>410</v>
       </c>
       <c r="G603" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H603" t="s">
         <v>1225</v>
-      </c>
-      <c r="H603" t="s">
-        <v>1226</v>
       </c>
       <c r="I603" t="s">
         <v>15</v>
@@ -20320,7 +20320,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>2020</v>
       </c>
@@ -20331,10 +20331,10 @@
         <v>413</v>
       </c>
       <c r="G604" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H604" t="s">
         <v>1225</v>
-      </c>
-      <c r="H604" t="s">
-        <v>1226</v>
       </c>
       <c r="I604" t="s">
         <v>15</v>
@@ -20343,7 +20343,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>2020</v>
       </c>
@@ -20354,10 +20354,10 @@
         <v>416</v>
       </c>
       <c r="G605" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H605" t="s">
         <v>1225</v>
-      </c>
-      <c r="H605" t="s">
-        <v>1226</v>
       </c>
       <c r="I605" t="s">
         <v>15</v>
@@ -20366,7 +20366,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>2020</v>
       </c>
@@ -20377,10 +20377,10 @@
         <v>419</v>
       </c>
       <c r="G606" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H606" t="s">
         <v>1225</v>
-      </c>
-      <c r="H606" t="s">
-        <v>1226</v>
       </c>
       <c r="I606" t="s">
         <v>15</v>
@@ -20389,7 +20389,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>2020</v>
       </c>
@@ -20400,10 +20400,10 @@
         <v>422</v>
       </c>
       <c r="G607" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H607" t="s">
         <v>1225</v>
-      </c>
-      <c r="H607" t="s">
-        <v>1226</v>
       </c>
       <c r="I607" t="s">
         <v>15</v>
@@ -20412,7 +20412,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>2020</v>
       </c>
@@ -20423,10 +20423,10 @@
         <v>425</v>
       </c>
       <c r="G608" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H608" t="s">
         <v>1225</v>
-      </c>
-      <c r="H608" t="s">
-        <v>1226</v>
       </c>
       <c r="I608" t="s">
         <v>15</v>
@@ -20435,7 +20435,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>2020</v>
       </c>
@@ -20446,10 +20446,10 @@
         <v>428</v>
       </c>
       <c r="G609" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H609" t="s">
         <v>1225</v>
-      </c>
-      <c r="H609" t="s">
-        <v>1226</v>
       </c>
       <c r="I609" t="s">
         <v>15</v>
@@ -20458,7 +20458,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>2020</v>
       </c>
@@ -20469,10 +20469,10 @@
         <v>431</v>
       </c>
       <c r="G610" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H610" t="s">
         <v>1225</v>
-      </c>
-      <c r="H610" t="s">
-        <v>1226</v>
       </c>
       <c r="I610" t="s">
         <v>15</v>
@@ -20481,7 +20481,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>2020</v>
       </c>
@@ -20492,10 +20492,10 @@
         <v>434</v>
       </c>
       <c r="G611" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H611" t="s">
         <v>1228</v>
-      </c>
-      <c r="H611" t="s">
-        <v>1229</v>
       </c>
       <c r="I611" t="s">
         <v>437</v>
@@ -20504,7 +20504,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>2020</v>
       </c>
@@ -20515,10 +20515,10 @@
         <v>440</v>
       </c>
       <c r="G612" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H612" t="s">
         <v>1228</v>
-      </c>
-      <c r="H612" t="s">
-        <v>1229</v>
       </c>
       <c r="I612" t="s">
         <v>437</v>
@@ -20527,7 +20527,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>2020</v>
       </c>
@@ -20538,10 +20538,10 @@
         <v>443</v>
       </c>
       <c r="G613" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H613" t="s">
         <v>1228</v>
-      </c>
-      <c r="H613" t="s">
-        <v>1229</v>
       </c>
       <c r="I613" t="s">
         <v>437</v>
@@ -20550,7 +20550,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>2020</v>
       </c>
@@ -20561,10 +20561,10 @@
         <v>482</v>
       </c>
       <c r="G614" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H614" t="s">
         <v>1228</v>
-      </c>
-      <c r="H614" t="s">
-        <v>1229</v>
       </c>
       <c r="I614" t="s">
         <v>437</v>
@@ -20573,7 +20573,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>2020</v>
       </c>
@@ -20584,10 +20584,10 @@
         <v>510</v>
       </c>
       <c r="G615" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H615" t="s">
         <v>1228</v>
-      </c>
-      <c r="H615" t="s">
-        <v>1229</v>
       </c>
       <c r="I615" t="s">
         <v>437</v>
@@ -20596,7 +20596,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>2020</v>
       </c>
@@ -20607,10 +20607,10 @@
         <v>490</v>
       </c>
       <c r="G616" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H616" t="s">
         <v>1228</v>
-      </c>
-      <c r="H616" t="s">
-        <v>1229</v>
       </c>
       <c r="I616" t="s">
         <v>437</v>
@@ -20619,7 +20619,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>2020</v>
       </c>
@@ -20630,10 +20630,10 @@
         <v>493</v>
       </c>
       <c r="G617" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H617" t="s">
         <v>1228</v>
-      </c>
-      <c r="H617" t="s">
-        <v>1229</v>
       </c>
       <c r="I617" t="s">
         <v>437</v>
@@ -20642,7 +20642,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>2020</v>
       </c>
@@ -20653,10 +20653,10 @@
         <v>446</v>
       </c>
       <c r="G618" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H618" t="s">
         <v>1228</v>
-      </c>
-      <c r="H618" t="s">
-        <v>1229</v>
       </c>
       <c r="I618" t="s">
         <v>437</v>
@@ -20665,7 +20665,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>2020</v>
       </c>
@@ -20676,10 +20676,10 @@
         <v>449</v>
       </c>
       <c r="G619" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H619" t="s">
         <v>1228</v>
-      </c>
-      <c r="H619" t="s">
-        <v>1229</v>
       </c>
       <c r="I619" t="s">
         <v>437</v>
@@ -20688,7 +20688,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>2020</v>
       </c>
@@ -20699,10 +20699,10 @@
         <v>452</v>
       </c>
       <c r="G620" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H620" t="s">
         <v>1228</v>
-      </c>
-      <c r="H620" t="s">
-        <v>1229</v>
       </c>
       <c r="I620" t="s">
         <v>437</v>
@@ -20711,7 +20711,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>2020</v>
       </c>
@@ -20722,10 +20722,10 @@
         <v>455</v>
       </c>
       <c r="G621" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H621" t="s">
         <v>1228</v>
-      </c>
-      <c r="H621" t="s">
-        <v>1229</v>
       </c>
       <c r="I621" t="s">
         <v>437</v>
@@ -20734,7 +20734,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>2020</v>
       </c>
@@ -20745,10 +20745,10 @@
         <v>458</v>
       </c>
       <c r="G622" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H622" t="s">
         <v>1228</v>
-      </c>
-      <c r="H622" t="s">
-        <v>1229</v>
       </c>
       <c r="I622" t="s">
         <v>437</v>
@@ -20757,7 +20757,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623" s="2">
         <v>2020</v>
       </c>
@@ -20768,10 +20768,10 @@
         <v>461</v>
       </c>
       <c r="G623" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H623" t="s">
         <v>1228</v>
-      </c>
-      <c r="H623" t="s">
-        <v>1229</v>
       </c>
       <c r="I623" t="s">
         <v>437</v>
@@ -20780,7 +20780,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624" s="2">
         <v>2020</v>
       </c>
@@ -20791,10 +20791,10 @@
         <v>464</v>
       </c>
       <c r="G624" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H624" t="s">
         <v>1228</v>
-      </c>
-      <c r="H624" t="s">
-        <v>1229</v>
       </c>
       <c r="I624" t="s">
         <v>437</v>
@@ -20803,7 +20803,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" s="2">
         <v>2020</v>
       </c>
@@ -20814,10 +20814,10 @@
         <v>467</v>
       </c>
       <c r="G625" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H625" t="s">
         <v>1228</v>
-      </c>
-      <c r="H625" t="s">
-        <v>1229</v>
       </c>
       <c r="I625" t="s">
         <v>437</v>
@@ -20826,7 +20826,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626" s="2">
         <v>2020</v>
       </c>
@@ -20834,13 +20834,13 @@
         <v>468</v>
       </c>
       <c r="F626" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G626" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H626" t="s">
         <v>1228</v>
-      </c>
-      <c r="H626" t="s">
-        <v>1229</v>
       </c>
       <c r="I626" t="s">
         <v>437</v>
@@ -20849,7 +20849,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" s="2">
         <v>2020</v>
       </c>
@@ -20860,10 +20860,10 @@
         <v>473</v>
       </c>
       <c r="G627" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H627" t="s">
         <v>1228</v>
-      </c>
-      <c r="H627" t="s">
-        <v>1229</v>
       </c>
       <c r="I627" t="s">
         <v>437</v>
@@ -20872,7 +20872,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628" s="2">
         <v>2020</v>
       </c>
@@ -20883,10 +20883,10 @@
         <v>476</v>
       </c>
       <c r="G628" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H628" t="s">
         <v>1228</v>
-      </c>
-      <c r="H628" t="s">
-        <v>1229</v>
       </c>
       <c r="I628" t="s">
         <v>437</v>
@@ -20895,7 +20895,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629" s="2">
         <v>2020</v>
       </c>
@@ -20906,10 +20906,10 @@
         <v>479</v>
       </c>
       <c r="G629" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H629" t="s">
         <v>1228</v>
-      </c>
-      <c r="H629" t="s">
-        <v>1229</v>
       </c>
       <c r="I629" t="s">
         <v>437</v>
@@ -20918,7 +20918,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630" s="2">
         <v>2020</v>
       </c>
@@ -20929,10 +20929,10 @@
         <v>496</v>
       </c>
       <c r="G630" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H630" t="s">
         <v>1228</v>
-      </c>
-      <c r="H630" t="s">
-        <v>1229</v>
       </c>
       <c r="I630" t="s">
         <v>437</v>
@@ -20941,7 +20941,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631" s="2">
         <v>2020</v>
       </c>
@@ -20952,10 +20952,10 @@
         <v>505</v>
       </c>
       <c r="G631" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H631" t="s">
         <v>1228</v>
-      </c>
-      <c r="H631" t="s">
-        <v>1229</v>
       </c>
       <c r="I631" t="s">
         <v>437</v>
@@ -20964,7 +20964,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632" s="2">
         <v>2020</v>
       </c>
@@ -20975,10 +20975,10 @@
         <v>512</v>
       </c>
       <c r="G632" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H632" t="s">
         <v>1228</v>
-      </c>
-      <c r="H632" t="s">
-        <v>1229</v>
       </c>
       <c r="I632" t="s">
         <v>437</v>
@@ -20987,7 +20987,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633" s="2">
         <v>2020</v>
       </c>
@@ -20998,10 +20998,10 @@
         <v>515</v>
       </c>
       <c r="G633" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H633" t="s">
         <v>1228</v>
-      </c>
-      <c r="H633" t="s">
-        <v>1229</v>
       </c>
       <c r="I633" t="s">
         <v>437</v>
@@ -21010,7 +21010,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634" s="2">
         <v>2020</v>
       </c>
@@ -21021,10 +21021,10 @@
         <v>518</v>
       </c>
       <c r="G634" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H634" t="s">
         <v>1228</v>
-      </c>
-      <c r="H634" t="s">
-        <v>1229</v>
       </c>
       <c r="I634" t="s">
         <v>437</v>
@@ -21033,7 +21033,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635" s="2">
         <v>2020</v>
       </c>
@@ -21044,10 +21044,10 @@
         <v>521</v>
       </c>
       <c r="G635" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H635" t="s">
         <v>1228</v>
-      </c>
-      <c r="H635" t="s">
-        <v>1229</v>
       </c>
       <c r="I635" t="s">
         <v>437</v>
@@ -21056,7 +21056,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636" s="2">
         <v>2020</v>
       </c>
@@ -21067,10 +21067,10 @@
         <v>581</v>
       </c>
       <c r="G636" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H636" t="s">
         <v>1231</v>
-      </c>
-      <c r="H636" t="s">
-        <v>1232</v>
       </c>
       <c r="I636" t="s">
         <v>526</v>
@@ -21079,7 +21079,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" s="2">
         <v>2020</v>
       </c>
@@ -21087,13 +21087,13 @@
         <v>671</v>
       </c>
       <c r="F637" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G637" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H637" t="s">
         <v>1231</v>
-      </c>
-      <c r="H637" t="s">
-        <v>1232</v>
       </c>
       <c r="I637" t="s">
         <v>526</v>
@@ -21102,7 +21102,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638" s="2">
         <v>2020</v>
       </c>
@@ -21113,10 +21113,10 @@
         <v>586</v>
       </c>
       <c r="G638" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H638" t="s">
         <v>1231</v>
-      </c>
-      <c r="H638" t="s">
-        <v>1232</v>
       </c>
       <c r="I638" t="s">
         <v>526</v>
@@ -21125,7 +21125,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639" s="2">
         <v>2020</v>
       </c>
@@ -21136,10 +21136,10 @@
         <v>589</v>
       </c>
       <c r="G639" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H639" t="s">
         <v>1231</v>
-      </c>
-      <c r="H639" t="s">
-        <v>1232</v>
       </c>
       <c r="I639" t="s">
         <v>526</v>
@@ -21148,7 +21148,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640" s="2">
         <v>2020</v>
       </c>
@@ -21159,10 +21159,10 @@
         <v>592</v>
       </c>
       <c r="G640" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H640" t="s">
         <v>1231</v>
-      </c>
-      <c r="H640" t="s">
-        <v>1232</v>
       </c>
       <c r="I640" t="s">
         <v>526</v>
@@ -21171,7 +21171,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A641" s="2">
         <v>2020</v>
       </c>
@@ -21182,10 +21182,10 @@
         <v>595</v>
       </c>
       <c r="G641" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H641" t="s">
         <v>1231</v>
-      </c>
-      <c r="H641" t="s">
-        <v>1232</v>
       </c>
       <c r="I641" t="s">
         <v>526</v>
@@ -21194,7 +21194,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A642" s="2">
         <v>2020</v>
       </c>
@@ -21205,10 +21205,10 @@
         <v>598</v>
       </c>
       <c r="G642" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H642" t="s">
         <v>1231</v>
-      </c>
-      <c r="H642" t="s">
-        <v>1232</v>
       </c>
       <c r="I642" t="s">
         <v>526</v>
@@ -21217,7 +21217,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643" s="2">
         <v>2020</v>
       </c>
@@ -21228,10 +21228,10 @@
         <v>601</v>
       </c>
       <c r="G643" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H643" t="s">
         <v>1231</v>
-      </c>
-      <c r="H643" t="s">
-        <v>1232</v>
       </c>
       <c r="I643" t="s">
         <v>526</v>
@@ -21240,7 +21240,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A644" s="2">
         <v>2020</v>
       </c>
@@ -21251,10 +21251,10 @@
         <v>604</v>
       </c>
       <c r="G644" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H644" t="s">
         <v>1231</v>
-      </c>
-      <c r="H644" t="s">
-        <v>1232</v>
       </c>
       <c r="I644" t="s">
         <v>526</v>
@@ -21263,7 +21263,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A645" s="2">
         <v>2020</v>
       </c>
@@ -21274,10 +21274,10 @@
         <v>611</v>
       </c>
       <c r="G645" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H645" t="s">
         <v>1231</v>
-      </c>
-      <c r="H645" t="s">
-        <v>1232</v>
       </c>
       <c r="I645" t="s">
         <v>526</v>
@@ -21286,7 +21286,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A646" s="2">
         <v>2020</v>
       </c>
@@ -21297,10 +21297,10 @@
         <v>614</v>
       </c>
       <c r="G646" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H646" t="s">
         <v>1231</v>
-      </c>
-      <c r="H646" t="s">
-        <v>1232</v>
       </c>
       <c r="I646" t="s">
         <v>526</v>
@@ -21309,7 +21309,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647" s="2">
         <v>2020</v>
       </c>
@@ -21320,10 +21320,10 @@
         <v>617</v>
       </c>
       <c r="G647" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H647" t="s">
         <v>1231</v>
-      </c>
-      <c r="H647" t="s">
-        <v>1232</v>
       </c>
       <c r="I647" t="s">
         <v>526</v>
@@ -21332,7 +21332,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A648" s="2">
         <v>2020</v>
       </c>
@@ -21340,13 +21340,13 @@
         <v>618</v>
       </c>
       <c r="F648" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G648" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H648" t="s">
         <v>1231</v>
-      </c>
-      <c r="H648" t="s">
-        <v>1232</v>
       </c>
       <c r="I648" t="s">
         <v>526</v>
@@ -21355,7 +21355,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A649" s="2">
         <v>2020</v>
       </c>
@@ -21366,10 +21366,10 @@
         <v>625</v>
       </c>
       <c r="G649" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H649" t="s">
         <v>1231</v>
-      </c>
-      <c r="H649" t="s">
-        <v>1232</v>
       </c>
       <c r="I649" t="s">
         <v>526</v>
@@ -21378,7 +21378,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A650" s="2">
         <v>2020</v>
       </c>
@@ -21389,10 +21389,10 @@
         <v>631</v>
       </c>
       <c r="G650" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H650" t="s">
         <v>1231</v>
-      </c>
-      <c r="H650" t="s">
-        <v>1232</v>
       </c>
       <c r="I650" t="s">
         <v>526</v>
@@ -21401,7 +21401,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A651" s="2">
         <v>2020</v>
       </c>
@@ -21409,13 +21409,13 @@
         <v>626</v>
       </c>
       <c r="F651" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G651" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H651" t="s">
         <v>1231</v>
-      </c>
-      <c r="H651" t="s">
-        <v>1232</v>
       </c>
       <c r="I651" t="s">
         <v>526</v>
@@ -21424,7 +21424,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A652" s="2">
         <v>2020</v>
       </c>
@@ -21435,10 +21435,10 @@
         <v>635</v>
       </c>
       <c r="G652" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H652" t="s">
         <v>1231</v>
-      </c>
-      <c r="H652" t="s">
-        <v>1232</v>
       </c>
       <c r="I652" t="s">
         <v>526</v>
@@ -21447,7 +21447,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A653" s="2">
         <v>2020</v>
       </c>
@@ -21458,10 +21458,10 @@
         <v>657</v>
       </c>
       <c r="G653" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H653" t="s">
         <v>1231</v>
-      </c>
-      <c r="H653" t="s">
-        <v>1232</v>
       </c>
       <c r="I653" t="s">
         <v>526</v>
@@ -21470,7 +21470,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A654" s="2">
         <v>2020</v>
       </c>
@@ -21481,10 +21481,10 @@
         <v>643</v>
       </c>
       <c r="G654" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H654" t="s">
         <v>1231</v>
-      </c>
-      <c r="H654" t="s">
-        <v>1232</v>
       </c>
       <c r="I654" t="s">
         <v>526</v>
@@ -21493,7 +21493,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A655" s="2">
         <v>2020</v>
       </c>
@@ -21504,10 +21504,10 @@
         <v>646</v>
       </c>
       <c r="G655" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H655" t="s">
         <v>1231</v>
-      </c>
-      <c r="H655" t="s">
-        <v>1232</v>
       </c>
       <c r="I655" t="s">
         <v>526</v>
@@ -21516,7 +21516,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A656" s="2">
         <v>2020</v>
       </c>
@@ -21527,10 +21527,10 @@
         <v>649</v>
       </c>
       <c r="G656" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H656" t="s">
         <v>1231</v>
-      </c>
-      <c r="H656" t="s">
-        <v>1232</v>
       </c>
       <c r="I656" t="s">
         <v>526</v>
@@ -21539,7 +21539,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" s="2">
         <v>2020</v>
       </c>
@@ -21550,10 +21550,10 @@
         <v>652</v>
       </c>
       <c r="G657" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H657" t="s">
         <v>1231</v>
-      </c>
-      <c r="H657" t="s">
-        <v>1232</v>
       </c>
       <c r="I657" t="s">
         <v>526</v>
@@ -21562,7 +21562,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A658" s="2">
         <v>2020</v>
       </c>
@@ -21570,13 +21570,13 @@
         <v>653</v>
       </c>
       <c r="F658" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G658" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H658" t="s">
         <v>1231</v>
-      </c>
-      <c r="H658" t="s">
-        <v>1232</v>
       </c>
       <c r="I658" t="s">
         <v>526</v>
@@ -21585,7 +21585,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659" s="2">
         <v>2020</v>
       </c>
@@ -21596,10 +21596,10 @@
         <v>664</v>
       </c>
       <c r="G659" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H659" t="s">
         <v>1231</v>
-      </c>
-      <c r="H659" t="s">
-        <v>1232</v>
       </c>
       <c r="I659" t="s">
         <v>526</v>
@@ -21608,7 +21608,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660" s="2">
         <v>2020</v>
       </c>
@@ -21619,10 +21619,10 @@
         <v>667</v>
       </c>
       <c r="G660" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H660" t="s">
         <v>1231</v>
-      </c>
-      <c r="H660" t="s">
-        <v>1232</v>
       </c>
       <c r="I660" t="s">
         <v>526</v>
@@ -21631,7 +21631,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A661" s="2">
         <v>2020</v>
       </c>
@@ -21642,10 +21642,10 @@
         <v>670</v>
       </c>
       <c r="G661" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H661" t="s">
         <v>1231</v>
-      </c>
-      <c r="H661" t="s">
-        <v>1232</v>
       </c>
       <c r="I661" t="s">
         <v>526</v>
@@ -21654,7 +21654,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A662" s="2">
         <v>2020</v>
       </c>
@@ -21665,10 +21665,10 @@
         <v>678</v>
       </c>
       <c r="G662" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H662" t="s">
         <v>1231</v>
-      </c>
-      <c r="H662" t="s">
-        <v>1232</v>
       </c>
       <c r="I662" t="s">
         <v>526</v>
@@ -21677,7 +21677,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663" s="2">
         <v>2020</v>
       </c>
@@ -21688,10 +21688,10 @@
         <v>681</v>
       </c>
       <c r="G663" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H663" t="s">
         <v>1231</v>
-      </c>
-      <c r="H663" t="s">
-        <v>1232</v>
       </c>
       <c r="I663" t="s">
         <v>526</v>
@@ -21700,7 +21700,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A664" s="2">
         <v>2020</v>
       </c>
@@ -21711,10 +21711,10 @@
         <v>684</v>
       </c>
       <c r="G664" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H664" t="s">
         <v>1231</v>
-      </c>
-      <c r="H664" t="s">
-        <v>1232</v>
       </c>
       <c r="I664" t="s">
         <v>526</v>
@@ -21723,7 +21723,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665" s="2">
         <v>2020</v>
       </c>
@@ -21734,10 +21734,10 @@
         <v>687</v>
       </c>
       <c r="G665" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H665" t="s">
         <v>1231</v>
-      </c>
-      <c r="H665" t="s">
-        <v>1232</v>
       </c>
       <c r="I665" t="s">
         <v>526</v>
@@ -21746,7 +21746,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A666" s="2">
         <v>2020</v>
       </c>
@@ -21757,10 +21757,10 @@
         <v>690</v>
       </c>
       <c r="G666" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H666" t="s">
         <v>1231</v>
-      </c>
-      <c r="H666" t="s">
-        <v>1232</v>
       </c>
       <c r="I666" t="s">
         <v>526</v>
@@ -21769,7 +21769,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" s="2">
         <v>2020</v>
       </c>
@@ -21780,10 +21780,10 @@
         <v>697</v>
       </c>
       <c r="G667" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H667" t="s">
         <v>1231</v>
-      </c>
-      <c r="H667" t="s">
-        <v>1232</v>
       </c>
       <c r="I667" t="s">
         <v>526</v>
@@ -21792,7 +21792,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A668" s="2">
         <v>2020</v>
       </c>
@@ -21803,10 +21803,10 @@
         <v>700</v>
       </c>
       <c r="G668" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H668" t="s">
         <v>1231</v>
-      </c>
-      <c r="H668" t="s">
-        <v>1232</v>
       </c>
       <c r="I668" t="s">
         <v>526</v>
@@ -21815,7 +21815,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A669" s="2">
         <v>2020</v>
       </c>
@@ -21826,10 +21826,10 @@
         <v>703</v>
       </c>
       <c r="G669" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H669" t="s">
         <v>1231</v>
-      </c>
-      <c r="H669" t="s">
-        <v>1232</v>
       </c>
       <c r="I669" t="s">
         <v>526</v>
@@ -21838,7 +21838,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A670" s="2">
         <v>2020</v>
       </c>
@@ -21849,10 +21849,10 @@
         <v>706</v>
       </c>
       <c r="G670" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H670" t="s">
         <v>1231</v>
-      </c>
-      <c r="H670" t="s">
-        <v>1232</v>
       </c>
       <c r="I670" t="s">
         <v>526</v>
@@ -21861,7 +21861,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671" s="2">
         <v>2020</v>
       </c>
@@ -21872,10 +21872,10 @@
         <v>709</v>
       </c>
       <c r="G671" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H671" t="s">
         <v>1231</v>
-      </c>
-      <c r="H671" t="s">
-        <v>1232</v>
       </c>
       <c r="I671" t="s">
         <v>526</v>
@@ -21884,7 +21884,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672" s="2">
         <v>2020</v>
       </c>
@@ -21895,10 +21895,10 @@
         <v>712</v>
       </c>
       <c r="G672" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H672" t="s">
         <v>1231</v>
-      </c>
-      <c r="H672" t="s">
-        <v>1232</v>
       </c>
       <c r="I672" t="s">
         <v>526</v>
@@ -21907,7 +21907,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A673" s="2">
         <v>2020</v>
       </c>
@@ -21918,10 +21918,10 @@
         <v>715</v>
       </c>
       <c r="G673" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H673" t="s">
         <v>1231</v>
-      </c>
-      <c r="H673" t="s">
-        <v>1232</v>
       </c>
       <c r="I673" t="s">
         <v>526</v>
@@ -21930,7 +21930,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674" s="2">
         <v>2020</v>
       </c>
@@ -21938,13 +21938,13 @@
         <v>716</v>
       </c>
       <c r="F674" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="G674" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H674" t="s">
         <v>1231</v>
-      </c>
-      <c r="H674" t="s">
-        <v>1232</v>
       </c>
       <c r="I674" t="s">
         <v>526</v>
@@ -21953,7 +21953,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A675" s="2">
         <v>2020</v>
       </c>
@@ -21964,10 +21964,10 @@
         <v>727</v>
       </c>
       <c r="G675" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H675" t="s">
         <v>1231</v>
-      </c>
-      <c r="H675" t="s">
-        <v>1232</v>
       </c>
       <c r="I675" t="s">
         <v>526</v>
@@ -21976,7 +21976,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A676" s="2">
         <v>2020</v>
       </c>
@@ -21984,13 +21984,13 @@
         <v>730</v>
       </c>
       <c r="F676" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G676" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H676" t="s">
         <v>1231</v>
-      </c>
-      <c r="H676" t="s">
-        <v>1232</v>
       </c>
       <c r="I676" t="s">
         <v>526</v>
@@ -21999,7 +21999,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A677" s="2">
         <v>2020</v>
       </c>
@@ -22010,10 +22010,10 @@
         <v>740</v>
       </c>
       <c r="G677" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H677" t="s">
         <v>1231</v>
-      </c>
-      <c r="H677" t="s">
-        <v>1232</v>
       </c>
       <c r="I677" t="s">
         <v>526</v>
@@ -22022,7 +22022,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A678" s="2">
         <v>2020</v>
       </c>
@@ -22033,10 +22033,10 @@
         <v>743</v>
       </c>
       <c r="G678" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H678" t="s">
         <v>1231</v>
-      </c>
-      <c r="H678" t="s">
-        <v>1232</v>
       </c>
       <c r="I678" t="s">
         <v>526</v>
@@ -22045,7 +22045,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A679" s="2">
         <v>2020</v>
       </c>
@@ -22068,7 +22068,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A680" s="2">
         <v>2020</v>
       </c>
@@ -22091,7 +22091,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A681" s="2">
         <v>2020</v>
       </c>
@@ -22099,7 +22099,7 @@
         <v>819</v>
       </c>
       <c r="F681" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G681" t="s">
         <v>1201</v>
@@ -22114,7 +22114,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A682" s="2">
         <v>2020</v>
       </c>
@@ -22137,7 +22137,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A683" s="2">
         <v>2020</v>
       </c>
@@ -22160,7 +22160,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A684" s="2">
         <v>2020</v>
       </c>
@@ -22183,7 +22183,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A685" s="2">
         <v>2020</v>
       </c>
@@ -22191,7 +22191,7 @@
         <v>1206</v>
       </c>
       <c r="F685" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G685" t="s">
         <v>1201</v>
@@ -22206,7 +22206,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A686" s="2">
         <v>2020</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v>1209</v>
       </c>
       <c r="F686" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G686" t="s">
         <v>1201</v>
@@ -22229,7 +22229,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A687" s="2">
         <v>2020</v>
       </c>
@@ -22240,10 +22240,10 @@
         <v>1077</v>
       </c>
       <c r="G687" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H687" t="s">
         <v>1242</v>
-      </c>
-      <c r="H687" t="s">
-        <v>1243</v>
       </c>
       <c r="I687" t="s">
         <v>981</v>
@@ -22252,7 +22252,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A688" s="2">
         <v>2020</v>
       </c>
@@ -22263,10 +22263,10 @@
         <v>1072</v>
       </c>
       <c r="G688" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H688" t="s">
         <v>1242</v>
-      </c>
-      <c r="H688" t="s">
-        <v>1243</v>
       </c>
       <c r="I688" t="s">
         <v>981</v>
@@ -22275,7 +22275,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A689" s="2">
         <v>2020</v>
       </c>
@@ -22286,10 +22286,10 @@
         <v>1159</v>
       </c>
       <c r="G689" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H689" t="s">
         <v>1242</v>
-      </c>
-      <c r="H689" t="s">
-        <v>1243</v>
       </c>
       <c r="I689" t="s">
         <v>981</v>
@@ -22298,7 +22298,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A690" s="2">
         <v>2020</v>
       </c>
@@ -22309,10 +22309,10 @@
         <v>1145</v>
       </c>
       <c r="G690" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H690" t="s">
         <v>1242</v>
-      </c>
-      <c r="H690" t="s">
-        <v>1243</v>
       </c>
       <c r="I690" t="s">
         <v>981</v>
@@ -22321,7 +22321,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A691" s="2">
         <v>2020</v>
       </c>
@@ -22332,10 +22332,10 @@
         <v>1150</v>
       </c>
       <c r="G691" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H691" t="s">
         <v>1242</v>
-      </c>
-      <c r="H691" t="s">
-        <v>1243</v>
       </c>
       <c r="I691" t="s">
         <v>981</v>
@@ -22344,7 +22344,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A692" s="2">
         <v>2020</v>
       </c>
@@ -22355,10 +22355,10 @@
         <v>1153</v>
       </c>
       <c r="G692" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H692" t="s">
         <v>1242</v>
-      </c>
-      <c r="H692" t="s">
-        <v>1243</v>
       </c>
       <c r="I692" t="s">
         <v>981</v>
@@ -22367,7 +22367,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A693" s="2">
         <v>2020</v>
       </c>
@@ -22378,10 +22378,10 @@
         <v>1081</v>
       </c>
       <c r="G693" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H693" t="s">
         <v>1242</v>
-      </c>
-      <c r="H693" t="s">
-        <v>1243</v>
       </c>
       <c r="I693" t="s">
         <v>981</v>
@@ -22390,7 +22390,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A694" s="2">
         <v>2020</v>
       </c>
@@ -22401,10 +22401,10 @@
         <v>1044</v>
       </c>
       <c r="G694" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H694" t="s">
         <v>1242</v>
-      </c>
-      <c r="H694" t="s">
-        <v>1243</v>
       </c>
       <c r="I694" t="s">
         <v>981</v>
@@ -22413,7 +22413,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A695" s="2">
         <v>2020</v>
       </c>
@@ -22424,10 +22424,10 @@
         <v>1088</v>
       </c>
       <c r="G695" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H695" t="s">
         <v>1242</v>
-      </c>
-      <c r="H695" t="s">
-        <v>1243</v>
       </c>
       <c r="I695" t="s">
         <v>981</v>
@@ -22436,7 +22436,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A696" s="2">
         <v>2020</v>
       </c>
@@ -22447,10 +22447,10 @@
         <v>1091</v>
       </c>
       <c r="G696" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H696" t="s">
         <v>1242</v>
-      </c>
-      <c r="H696" t="s">
-        <v>1243</v>
       </c>
       <c r="I696" t="s">
         <v>981</v>
@@ -22459,7 +22459,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A697" s="2">
         <v>2020</v>
       </c>
@@ -22467,13 +22467,13 @@
         <v>1092</v>
       </c>
       <c r="F697" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G697" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H697" t="s">
         <v>1242</v>
-      </c>
-      <c r="H697" t="s">
-        <v>1243</v>
       </c>
       <c r="I697" t="s">
         <v>981</v>
@@ -22482,7 +22482,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A698" s="2">
         <v>2020</v>
       </c>
@@ -22493,10 +22493,10 @@
         <v>1097</v>
       </c>
       <c r="G698" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H698" t="s">
         <v>1242</v>
-      </c>
-      <c r="H698" t="s">
-        <v>1243</v>
       </c>
       <c r="I698" t="s">
         <v>981</v>
@@ -22505,7 +22505,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A699" s="2">
         <v>2020</v>
       </c>
@@ -22516,10 +22516,10 @@
         <v>1100</v>
       </c>
       <c r="G699" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H699" t="s">
         <v>1242</v>
-      </c>
-      <c r="H699" t="s">
-        <v>1243</v>
       </c>
       <c r="I699" t="s">
         <v>981</v>
@@ -22528,7 +22528,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A700" s="2">
         <v>2020</v>
       </c>
@@ -22539,10 +22539,10 @@
         <v>1103</v>
       </c>
       <c r="G700" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H700" t="s">
         <v>1242</v>
-      </c>
-      <c r="H700" t="s">
-        <v>1243</v>
       </c>
       <c r="I700" t="s">
         <v>981</v>
@@ -22551,7 +22551,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A701" s="2">
         <v>2020</v>
       </c>
@@ -22562,10 +22562,10 @@
         <v>1106</v>
       </c>
       <c r="G701" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H701" t="s">
         <v>1242</v>
-      </c>
-      <c r="H701" t="s">
-        <v>1243</v>
       </c>
       <c r="I701" t="s">
         <v>981</v>
@@ -22574,7 +22574,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A702" s="2">
         <v>2020</v>
       </c>
@@ -22585,10 +22585,10 @@
         <v>1109</v>
       </c>
       <c r="G702" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H702" t="s">
         <v>1242</v>
-      </c>
-      <c r="H702" t="s">
-        <v>1243</v>
       </c>
       <c r="I702" t="s">
         <v>981</v>
@@ -22597,7 +22597,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A703" s="2">
         <v>2020</v>
       </c>
@@ -22605,13 +22605,13 @@
         <v>1110</v>
       </c>
       <c r="F703" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G703" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H703" t="s">
         <v>1242</v>
-      </c>
-      <c r="H703" t="s">
-        <v>1243</v>
       </c>
       <c r="I703" t="s">
         <v>981</v>
@@ -22620,7 +22620,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A704" s="2">
         <v>2020</v>
       </c>
@@ -22631,10 +22631,10 @@
         <v>1121</v>
       </c>
       <c r="G704" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H704" t="s">
         <v>1242</v>
-      </c>
-      <c r="H704" t="s">
-        <v>1243</v>
       </c>
       <c r="I704" t="s">
         <v>981</v>
@@ -22643,7 +22643,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A705" s="2">
         <v>2020</v>
       </c>
@@ -22654,10 +22654,10 @@
         <v>1124</v>
       </c>
       <c r="G705" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H705" t="s">
         <v>1242</v>
-      </c>
-      <c r="H705" t="s">
-        <v>1243</v>
       </c>
       <c r="I705" t="s">
         <v>981</v>
@@ -22666,7 +22666,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A706" s="2">
         <v>2020</v>
       </c>
@@ -22677,10 +22677,10 @@
         <v>1127</v>
       </c>
       <c r="G706" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H706" t="s">
         <v>1242</v>
-      </c>
-      <c r="H706" t="s">
-        <v>1243</v>
       </c>
       <c r="I706" t="s">
         <v>981</v>
@@ -22689,7 +22689,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A707" s="2">
         <v>2020</v>
       </c>
@@ -22697,13 +22697,13 @@
         <v>1128</v>
       </c>
       <c r="F707" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G707" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H707" t="s">
         <v>1242</v>
-      </c>
-      <c r="H707" t="s">
-        <v>1243</v>
       </c>
       <c r="I707" t="s">
         <v>981</v>
@@ -22712,7 +22712,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A708" s="2">
         <v>2020</v>
       </c>
@@ -22720,13 +22720,13 @@
         <v>1131</v>
       </c>
       <c r="F708" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="G708" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H708" t="s">
         <v>1242</v>
-      </c>
-      <c r="H708" t="s">
-        <v>1243</v>
       </c>
       <c r="I708" t="s">
         <v>981</v>
@@ -22735,7 +22735,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A709" s="2">
         <v>2020</v>
       </c>
@@ -22746,10 +22746,10 @@
         <v>1136</v>
       </c>
       <c r="G709" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H709" t="s">
         <v>1242</v>
-      </c>
-      <c r="H709" t="s">
-        <v>1243</v>
       </c>
       <c r="I709" t="s">
         <v>981</v>
@@ -22758,7 +22758,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A710" s="2">
         <v>2020</v>
       </c>
@@ -22769,10 +22769,10 @@
         <v>1139</v>
       </c>
       <c r="G710" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H710" t="s">
         <v>1242</v>
-      </c>
-      <c r="H710" t="s">
-        <v>1243</v>
       </c>
       <c r="I710" t="s">
         <v>981</v>
@@ -22781,7 +22781,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A711" s="2">
         <v>2020</v>
       </c>
@@ -22792,10 +22792,10 @@
         <v>1142</v>
       </c>
       <c r="G711" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H711" t="s">
         <v>1242</v>
-      </c>
-      <c r="H711" t="s">
-        <v>1243</v>
       </c>
       <c r="I711" t="s">
         <v>981</v>
@@ -22804,7 +22804,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A712" s="2">
         <v>2020</v>
       </c>
@@ -22812,13 +22812,13 @@
         <v>1154</v>
       </c>
       <c r="F712" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G712" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H712" t="s">
         <v>1242</v>
-      </c>
-      <c r="H712" t="s">
-        <v>1243</v>
       </c>
       <c r="I712" t="s">
         <v>981</v>
@@ -22827,7 +22827,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A713" s="2">
         <v>2020</v>
       </c>
@@ -22838,10 +22838,10 @@
         <v>1162</v>
       </c>
       <c r="G713" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H713" t="s">
         <v>1242</v>
-      </c>
-      <c r="H713" t="s">
-        <v>1243</v>
       </c>
       <c r="I713" t="s">
         <v>981</v>
@@ -22850,7 +22850,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A714" s="2">
         <v>2020</v>
       </c>
@@ -22861,10 +22861,10 @@
         <v>1165</v>
       </c>
       <c r="G714" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H714" t="s">
         <v>1242</v>
-      </c>
-      <c r="H714" t="s">
-        <v>1243</v>
       </c>
       <c r="I714" t="s">
         <v>981</v>
@@ -22873,7 +22873,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A715" s="2">
         <v>2020</v>
       </c>
@@ -22884,10 +22884,10 @@
         <v>1170</v>
       </c>
       <c r="G715" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H715" t="s">
         <v>1242</v>
-      </c>
-      <c r="H715" t="s">
-        <v>1243</v>
       </c>
       <c r="I715" t="s">
         <v>981</v>
@@ -22896,7 +22896,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A716" s="2">
         <v>2020</v>
       </c>
@@ -22907,10 +22907,10 @@
         <v>1173</v>
       </c>
       <c r="G716" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H716" t="s">
         <v>1242</v>
-      </c>
-      <c r="H716" t="s">
-        <v>1243</v>
       </c>
       <c r="I716" t="s">
         <v>981</v>
@@ -22919,7 +22919,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A717" s="2">
         <v>2020</v>
       </c>
@@ -22927,13 +22927,13 @@
         <v>1174</v>
       </c>
       <c r="F717" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G717" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H717" t="s">
         <v>1242</v>
-      </c>
-      <c r="H717" t="s">
-        <v>1243</v>
       </c>
       <c r="I717" t="s">
         <v>981</v>
@@ -22942,7 +22942,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A718" s="2">
         <v>2020</v>
       </c>
@@ -22950,13 +22950,13 @@
         <v>1177</v>
       </c>
       <c r="F718" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G718" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H718" t="s">
         <v>1242</v>
-      </c>
-      <c r="H718" t="s">
-        <v>1243</v>
       </c>
       <c r="I718" t="s">
         <v>981</v>
@@ -22965,7 +22965,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A719" s="2">
         <v>2020</v>
       </c>
@@ -22976,10 +22976,10 @@
         <v>1182</v>
       </c>
       <c r="G719" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H719" t="s">
         <v>1242</v>
-      </c>
-      <c r="H719" t="s">
-        <v>1243</v>
       </c>
       <c r="I719" t="s">
         <v>981</v>
@@ -22988,7 +22988,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A720" s="2">
         <v>2020</v>
       </c>
@@ -22999,10 +22999,10 @@
         <v>1185</v>
       </c>
       <c r="G720" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H720" t="s">
         <v>1242</v>
-      </c>
-      <c r="H720" t="s">
-        <v>1243</v>
       </c>
       <c r="I720" t="s">
         <v>981</v>
@@ -23011,7 +23011,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A721" s="2">
         <v>2020</v>
       </c>
@@ -23022,10 +23022,10 @@
         <v>1188</v>
       </c>
       <c r="G721" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H721" t="s">
         <v>1242</v>
-      </c>
-      <c r="H721" t="s">
-        <v>1243</v>
       </c>
       <c r="I721" t="s">
         <v>981</v>
@@ -23034,7 +23034,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A722" s="2">
         <v>2020</v>
       </c>
@@ -23042,13 +23042,13 @@
         <v>1189</v>
       </c>
       <c r="F722" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G722" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H722" t="s">
         <v>1242</v>
-      </c>
-      <c r="H722" t="s">
-        <v>1243</v>
       </c>
       <c r="I722" t="s">
         <v>981</v>
@@ -23057,7 +23057,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A723" s="2">
         <v>2020</v>
       </c>
@@ -23065,13 +23065,13 @@
         <v>1192</v>
       </c>
       <c r="F723" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G723" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H723" t="s">
         <v>1242</v>
-      </c>
-      <c r="H723" t="s">
-        <v>1243</v>
       </c>
       <c r="I723" t="s">
         <v>981</v>
@@ -23080,7 +23080,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A724" s="2">
         <v>2020</v>
       </c>
@@ -23091,10 +23091,10 @@
         <v>1197</v>
       </c>
       <c r="G724" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H724" t="s">
         <v>1242</v>
-      </c>
-      <c r="H724" t="s">
-        <v>1243</v>
       </c>
       <c r="I724" t="s">
         <v>981</v>
@@ -23103,7 +23103,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A725" s="2">
         <v>2020</v>
       </c>
@@ -23114,10 +23114,10 @@
         <v>1200</v>
       </c>
       <c r="G725" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H725" t="s">
         <v>1242</v>
-      </c>
-      <c r="H725" t="s">
-        <v>1243</v>
       </c>
       <c r="I725" t="s">
         <v>981</v>
@@ -23126,7 +23126,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A726" s="2">
         <v>2020</v>
       </c>
@@ -23149,7 +23149,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A727" s="2">
         <v>2020</v>
       </c>
@@ -23163,7 +23163,7 @@
         <v>747</v>
       </c>
       <c r="H727" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I727" t="s">
         <v>526</v>
@@ -23172,7 +23172,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A728" s="2">
         <v>2020</v>
       </c>
@@ -23186,7 +23186,7 @@
         <v>747</v>
       </c>
       <c r="H728" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I728" t="s">
         <v>526</v>
@@ -23195,7 +23195,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A729" s="2">
         <v>2020</v>
       </c>
@@ -23209,7 +23209,7 @@
         <v>747</v>
       </c>
       <c r="H729" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I729" t="s">
         <v>526</v>
@@ -23218,7 +23218,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A730" s="2">
         <v>2020</v>
       </c>
@@ -23226,13 +23226,13 @@
         <v>770</v>
       </c>
       <c r="F730" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G730" t="s">
         <v>747</v>
       </c>
       <c r="H730" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I730" t="s">
         <v>526</v>
@@ -23241,7 +23241,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A731" s="2">
         <v>2020</v>
       </c>
@@ -23249,13 +23249,13 @@
         <v>799</v>
       </c>
       <c r="F731" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G731" t="s">
         <v>747</v>
       </c>
       <c r="H731" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I731" t="s">
         <v>526</v>
@@ -23264,7 +23264,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A732" s="2">
         <v>2020</v>
       </c>
@@ -23287,7 +23287,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A733" s="2">
         <v>2020</v>
       </c>

--- a/inst/extdata/norway_locations.xlsx
+++ b/inst/extdata/norway_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riwh\OneDrive - Folkehelseinstituttet\packages\fhidata\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E0AA4139-EC72-7240-B4DA-8072FE8D2BA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{37AA1EF0-D9E2-4741-9D7B-7CD7AAC9AEC9}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E0AA4139-EC72-7240-B4DA-8072FE8D2BA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{FFB0F681-E472-4005-9E7D-3DDA4690704B}"/>
   <bookViews>
     <workbookView xWindow="7155" yWindow="1140" windowWidth="20895" windowHeight="13005" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3795,7 +3795,7 @@
     <t>Nesbyen</t>
   </si>
   <si>
-    <t>Norde Follo</t>
+    <t>Nordre Follo</t>
   </si>
 </sst>
 </file>

--- a/inst/extdata/norway_locations.xlsx
+++ b/inst/extdata/norway_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riwh\OneDrive - Folkehelseinstituttet\packages\fhidata\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E0AA4139-EC72-7240-B4DA-8072FE8D2BA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{FFB0F681-E472-4005-9E7D-3DDA4690704B}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E0AA4139-EC72-7240-B4DA-8072FE8D2BA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{428F07CA-E750-4575-A71E-56B1D4609DD4}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="1140" windowWidth="20895" windowHeight="13005" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="norwayLocations" sheetId="1" r:id="rId1"/>
@@ -3831,7 +3831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3839,7 +3839,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4156,8 +4155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F508" sqref="F508"/>
+    <sheetView tabSelected="1" topLeftCell="A662" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J677" sqref="J677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23146,7 +23145,7 @@
         <v>526</v>
       </c>
       <c r="J726" t="s">
-        <v>748</v>
+        <v>527</v>
       </c>
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.25">
@@ -23168,8 +23167,8 @@
       <c r="I727" t="s">
         <v>526</v>
       </c>
-      <c r="J727" s="3" t="s">
-        <v>748</v>
+      <c r="J727" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.25">
@@ -23191,8 +23190,8 @@
       <c r="I728" t="s">
         <v>526</v>
       </c>
-      <c r="J728" s="3" t="s">
-        <v>748</v>
+      <c r="J728" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.25">
@@ -23214,8 +23213,8 @@
       <c r="I729" t="s">
         <v>526</v>
       </c>
-      <c r="J729" s="3" t="s">
-        <v>748</v>
+      <c r="J729" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.25">
@@ -23237,8 +23236,8 @@
       <c r="I730" t="s">
         <v>526</v>
       </c>
-      <c r="J730" s="3" t="s">
-        <v>748</v>
+      <c r="J730" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.25">
@@ -23260,8 +23259,8 @@
       <c r="I731" t="s">
         <v>526</v>
       </c>
-      <c r="J731" s="3" t="s">
-        <v>748</v>
+      <c r="J731" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="732" spans="1:10" x14ac:dyDescent="0.25">
